--- a/ملفات الاكسل لمشروع التخرج/subjects_types.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/subjects_types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075807F-7855-48C2-8611-BD3D67351B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFAE25A-2EB3-46D5-8A8D-7BE804B4768B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
